--- a/Practice/sample tables.xlsx
+++ b/Practice/sample tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\SQL\DAY4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\SQL\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{11BDAAAD-44EE-4B37-B6EB-F17C8DD933DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D9920B9-D451-4C89-859D-8F163EB96055}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{B4B7F0C5-BD6C-44B9-A1D4-58BAE8246E35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B4B7F0C5-BD6C-44B9-A1D4-58BAE8246E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Textbook DATA" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -98,6 +98,51 @@
   </si>
   <si>
     <t>COAUTHOR</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>DIRECTIONS</t>
+  </si>
+  <si>
+    <t>Create tables</t>
+  </si>
+  <si>
+    <t>Create table structures</t>
+  </si>
+  <si>
+    <t>Insert additional rows into tables</t>
+  </si>
+  <si>
+    <t>Join PRODUCTS and BUYER INFORMATION tables</t>
+  </si>
+  <si>
+    <t>Join BUYER INFORMATION and INVOICE tables</t>
+  </si>
+  <si>
+    <t>Join all three tables</t>
+  </si>
+  <si>
+    <t>Join DEMONSTRATION and AUTHOR tables</t>
+  </si>
+  <si>
+    <t>Delete one row from each table</t>
+  </si>
+  <si>
+    <t>Select even ProductID's from Textbook field in Products table</t>
+  </si>
+  <si>
+    <t>Create database "textbooks_db"</t>
+  </si>
+  <si>
+    <t>Create database "demonstrations"</t>
   </si>
 </sst>
 </file>
@@ -124,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -288,11 +333,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,15 +371,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -335,6 +384,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,125 +755,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F7597F-F3E3-46DA-B2C8-664B3641C90E}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>250</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="17"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18">
+        <v>123</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18">
+        <v>456</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19">
+        <v>789</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -775,9 +1024,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE38C377-6650-442F-82FF-0EFF2EBA51E6}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -786,131 +1035,187 @@
     <col min="3" max="3" width="39.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="G3" s="30">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="G5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="G6" s="13">
+        <v>4</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="13">
+        <v>5</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="31">
+        <v>6</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
